--- a/4.excel/report_region.xlsx
+++ b/4.excel/report_region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>지역</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>lisbon</t>
+  </si>
+  <si>
+    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -164,23 +167,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$B$2</c:f>
+              <c:f>데이터!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>464721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>854833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -206,23 +215,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$C$2</c:f>
+              <c:f>데이터!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>239144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,23 +263,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$D$2</c:f>
+              <c:f>데이터!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>433274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,23 +311,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$E$2</c:f>
+              <c:f>데이터!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>190132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,23 +359,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$F$2</c:f>
+              <c:f>데이터!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>173311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,23 +407,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$G$2</c:f>
+              <c:f>데이터!$G$2:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>54506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,23 +455,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>데이터!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Oporto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lisbon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$H$2</c:f>
+              <c:f>데이터!$H$2:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1555088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2386813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,6 +967,32 @@
         <v>2386813</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3960577</v>
+      </c>
+      <c r="C4">
+        <v>1888759</v>
+      </c>
+      <c r="D4">
+        <v>2495251</v>
+      </c>
+      <c r="E4">
+        <v>930492</v>
+      </c>
+      <c r="F4">
+        <v>890410</v>
+      </c>
+      <c r="G4">
+        <v>512110</v>
+      </c>
+      <c r="H4">
+        <v>10677599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
